--- a/02_MasterWifoMannheim/99_Backup/Course165.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course165.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/99_Backup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_2B59D2BFD300D369A3B9231159C718B75641FF94" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2244B162-72CD-4F28-9F00-BA0310B4323A}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_2B59D2BFD320D83EA79A3011599950B74C8DFF6A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{623D926E-00B0-4C91-B2D8-C8BA37047083}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,12 +40,15 @@
     <t>Students learn to understand the impact of stochastic variability in operations systems. After this course students are familiar with the theory and practice of the analysis of stochastic systems. They learn to adapt and to apply analytical approximations and robust planning methods to support managerial decisions.</t>
   </si>
   <si>
+    <t>Benötigte Kurse</t>
+  </si>
+  <si>
+    <t>OPM 501| OPM 502| OPM 561| OPM 581| OPM 582| OPM 591</t>
+  </si>
+  <si>
     <t>Prerequisites</t>
   </si>
   <si>
-    <t>Formal: At least one of the modules OPM 501, 502, 561, 581, 582 or 591 (parallel attendance possible); other modules may be accepted upon request.Recommended: Participants should be familiar with the fundamentals of production and operations management. The course further assumes a basic knowledge in mathematics (including linear programming) and in statistics (probability distributions).</t>
-  </si>
-  <si>
     <t>Obligatory registration</t>
   </si>
   <si>
@@ -85,7 +88,7 @@
     <t>Offering</t>
   </si>
   <si>
-    <t>Fall semester (irregular)</t>
+    <t>FWS</t>
   </si>
   <si>
     <t>Language</t>
@@ -109,10 +112,7 @@
     <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Bus. Math., M.Sc. Econ.,</t>
   </si>
   <si>
-    <t>Benötigte Kurse</t>
-  </si>
-  <si>
-    <t>OPM 501| OPM 502| OPM 561| OPM 581| OPM 582| OPM 591</t>
+    <t>Operations Management (OPM), Mathematical and Statistical Foundations (MSF)</t>
   </si>
 </sst>
 </file>
@@ -479,7 +479,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,105 +518,105 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
